--- a/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B854176-B031-4AFF-BFD8-1C6A7F49E1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBDBF47-71B3-4D79-8923-F7B57EFC1B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{11377575-4EC9-4A8F-8F12-4FE4DDEDFB0F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D14CC427-C05D-4AAF-A52E-75961770AB0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>11,69%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,379 +134,388 @@
     <t>15,98%</t>
   </si>
   <si>
-    <t>13,28%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>68,17%</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>6,33%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>18,11%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
   </si>
   <si>
     <t>58,43%</t>
   </si>
   <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>62,61%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5398507B-8295-4093-B364-2140DA0AE4E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BF446B-06AD-4D6E-8BCC-5963FC58907F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1410,7 +1419,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>691</v>
@@ -1419,13 +1428,13 @@
         <v>425379</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1083</v>
@@ -1434,13 +1443,13 @@
         <v>779425</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,28 +1464,28 @@
         <v>1510577</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1645</v>
       </c>
       <c r="I12" s="7">
-        <v>1436430</v>
+        <v>1436431</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2932</v>
@@ -1485,13 +1494,13 @@
         <v>2947008</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,7 +1527,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1547,7 +1556,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1559,13 +1568,13 @@
         <v>41610</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -1574,13 +1583,13 @@
         <v>43898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -1589,7 +1598,7 @@
         <v>85508</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>95</v>
@@ -1661,13 +1670,13 @@
         <v>128628</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>252</v>
@@ -1676,13 +1685,13 @@
         <v>156336</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>402</v>
@@ -1691,13 +1700,13 @@
         <v>284965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1721,13 @@
         <v>458152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>599</v>
@@ -1727,13 +1736,13 @@
         <v>453714</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>1045</v>
@@ -1742,13 +1751,13 @@
         <v>911866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1825,13 @@
         <v>289816</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>613</v>
@@ -1831,13 +1840,13 @@
         <v>398439</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>935</v>
@@ -1846,13 +1855,13 @@
         <v>688255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1876,13 @@
         <v>244347</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>665</v>
@@ -1882,13 +1891,13 @@
         <v>416561</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>937</v>
@@ -1897,13 +1906,13 @@
         <v>660908</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,16 +1924,16 @@
         <v>652</v>
       </c>
       <c r="D21" s="7">
-        <v>569232</v>
+        <v>569233</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>1284</v>
@@ -1933,13 +1942,13 @@
         <v>763097</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>1936</v>
@@ -1948,13 +1957,13 @@
         <v>1332330</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,16 +1975,16 @@
         <v>2116</v>
       </c>
       <c r="D22" s="7">
-        <v>2271249</v>
+        <v>2271250</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>2789</v>
@@ -1984,13 +1993,13 @@
         <v>2218501</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>4905</v>
@@ -1999,13 +2008,13 @@
         <v>4489750</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2026,7 @@
         <v>3362</v>
       </c>
       <c r="D23" s="7">
-        <v>3374645</v>
+        <v>3374646</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2061,7 +2070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBDBF47-71B3-4D79-8923-F7B57EFC1B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDDD7F7B-13C2-466B-8928-166DEE93685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D14CC427-C05D-4AAF-A52E-75961770AB0B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4EA773EA-9AC8-42B9-88F5-EA48B2E9EB35}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BF446B-06AD-4D6E-8BCC-5963FC58907F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B546809E-E96E-41EE-82A6-B8F5838B5C0F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDDD7F7B-13C2-466B-8928-166DEE93685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F7FC6C-B109-439F-946A-CF7CB4E0B820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4EA773EA-9AC8-42B9-88F5-EA48B2E9EB35}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30A94D9F-9ED0-45AF-996B-5AC4EF7B988C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>11,69%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,28 @@
     <t>15,98%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>21,77%</t>
   </si>
   <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,28 +164,28 @@
     <t>55,85%</t>
   </si>
   <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>39,41%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,325 +197,316 @@
     <t>7,36%</t>
   </si>
   <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>7,48%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
   </si>
   <si>
     <t>68,17%</t>
   </si>
   <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>6,33%</t>
   </si>
   <si>
     <t>10,97%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>18,11%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
   </si>
   <si>
     <t>58,43%</t>
   </si>
   <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
   </si>
   <si>
     <t>62,61%</t>
   </si>
   <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B546809E-E96E-41EE-82A6-B8F5838B5C0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD525828-D39F-4D82-9D7E-CB2512683408}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1419,7 +1410,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>691</v>
@@ -1428,13 +1419,13 @@
         <v>425379</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1083</v>
@@ -1443,13 +1434,13 @@
         <v>779425</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,28 +1455,28 @@
         <v>1510577</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1645</v>
       </c>
       <c r="I12" s="7">
-        <v>1436431</v>
+        <v>1436430</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2932</v>
@@ -1494,13 +1485,13 @@
         <v>2947008</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,7 +1518,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1556,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1568,13 +1559,13 @@
         <v>41610</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -1583,13 +1574,13 @@
         <v>43898</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -1598,7 +1589,7 @@
         <v>85508</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>95</v>
@@ -1670,13 +1661,13 @@
         <v>128628</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>252</v>
@@ -1685,13 +1676,13 @@
         <v>156336</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>402</v>
@@ -1700,13 +1691,13 @@
         <v>284965</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1712,13 @@
         <v>458152</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>599</v>
@@ -1736,13 +1727,13 @@
         <v>453714</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>1045</v>
@@ -1751,13 +1742,13 @@
         <v>911866</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1816,13 @@
         <v>289816</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>613</v>
@@ -1840,13 +1831,13 @@
         <v>398439</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>935</v>
@@ -1855,13 +1846,13 @@
         <v>688255</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1867,13 @@
         <v>244347</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>665</v>
@@ -1891,13 +1882,13 @@
         <v>416561</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>937</v>
@@ -1906,13 +1897,13 @@
         <v>660908</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,16 +1915,16 @@
         <v>652</v>
       </c>
       <c r="D21" s="7">
-        <v>569233</v>
+        <v>569232</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>1284</v>
@@ -1942,13 +1933,13 @@
         <v>763097</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="M21" s="7">
         <v>1936</v>
@@ -1957,13 +1948,13 @@
         <v>1332330</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,16 +1966,16 @@
         <v>2116</v>
       </c>
       <c r="D22" s="7">
-        <v>2271250</v>
+        <v>2271249</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>2789</v>
@@ -1993,13 +1984,13 @@
         <v>2218501</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>4905</v>
@@ -2008,13 +1999,13 @@
         <v>4489750</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2017,7 @@
         <v>3362</v>
       </c>
       <c r="D23" s="7">
-        <v>3374646</v>
+        <v>3374645</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2070,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F7FC6C-B109-439F-946A-CF7CB4E0B820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C0D365-84AA-42BE-A66D-B0879B2B2B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30A94D9F-9ED0-45AF-996B-5AC4EF7B988C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6BB4265B-831E-40E3-8E99-566103F54F67}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,442 +71,451 @@
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD525828-D39F-4D82-9D7E-CB2512683408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0DB539-B275-4E10-8604-30D3F4A8EDEE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1042,7 +1051,7 @@
         <v>113</v>
       </c>
       <c r="D4" s="7">
-        <v>89248</v>
+        <v>80941</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1057,7 +1066,7 @@
         <v>292</v>
       </c>
       <c r="I4" s="7">
-        <v>185235</v>
+        <v>160572</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1072,7 +1081,7 @@
         <v>405</v>
       </c>
       <c r="N4" s="7">
-        <v>274483</v>
+        <v>241513</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1093,7 +1102,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="7">
-        <v>63307</v>
+        <v>58807</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1108,7 +1117,7 @@
         <v>248</v>
       </c>
       <c r="I5" s="7">
-        <v>138218</v>
+        <v>123858</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1123,7 +1132,7 @@
         <v>333</v>
       </c>
       <c r="N5" s="7">
-        <v>201525</v>
+        <v>182665</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1144,7 +1153,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="7">
-        <v>86559</v>
+        <v>80502</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1159,7 +1168,7 @@
         <v>341</v>
       </c>
       <c r="I6" s="7">
-        <v>181382</v>
+        <v>165876</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1174,7 +1183,7 @@
         <v>451</v>
       </c>
       <c r="N6" s="7">
-        <v>267940</v>
+        <v>246378</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1195,7 +1204,7 @@
         <v>383</v>
       </c>
       <c r="D7" s="7">
-        <v>302521</v>
+        <v>294689</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1210,7 +1219,7 @@
         <v>545</v>
       </c>
       <c r="I7" s="7">
-        <v>328356</v>
+        <v>302861</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1225,7 +1234,7 @@
         <v>928</v>
       </c>
       <c r="N7" s="7">
-        <v>630877</v>
+        <v>597551</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1246,7 +1255,7 @@
         <v>691</v>
       </c>
       <c r="D8" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1261,7 +1270,7 @@
         <v>1426</v>
       </c>
       <c r="I8" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1276,7 +1285,7 @@
         <v>2117</v>
       </c>
       <c r="N8" s="7">
-        <v>1374824</v>
+        <v>1268107</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1299,7 +1308,7 @@
         <v>167</v>
       </c>
       <c r="D9" s="7">
-        <v>158958</v>
+        <v>146085</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1314,7 +1323,7 @@
         <v>256</v>
       </c>
       <c r="I9" s="7">
-        <v>169306</v>
+        <v>152640</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1329,7 +1338,7 @@
         <v>423</v>
       </c>
       <c r="N9" s="7">
-        <v>328264</v>
+        <v>298726</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1350,7 +1359,7 @@
         <v>145</v>
       </c>
       <c r="D10" s="7">
-        <v>137364</v>
+        <v>132385</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1365,7 +1374,7 @@
         <v>329</v>
       </c>
       <c r="I10" s="7">
-        <v>218405</v>
+        <v>200640</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1380,7 +1389,7 @@
         <v>474</v>
       </c>
       <c r="N10" s="7">
-        <v>355769</v>
+        <v>333025</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1401,7 +1410,7 @@
         <v>392</v>
       </c>
       <c r="D11" s="7">
-        <v>354046</v>
+        <v>333733</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1410,37 +1419,37 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>691</v>
       </c>
       <c r="I11" s="7">
-        <v>425379</v>
+        <v>388486</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1083</v>
       </c>
       <c r="N11" s="7">
-        <v>779425</v>
+        <v>722220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,46 +1461,46 @@
         <v>1287</v>
       </c>
       <c r="D12" s="7">
-        <v>1510577</v>
+        <v>1677093</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>1645</v>
       </c>
       <c r="I12" s="7">
-        <v>1436430</v>
+        <v>1496056</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>2932</v>
       </c>
       <c r="N12" s="7">
-        <v>2947008</v>
+        <v>3173150</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,7 +1512,7 @@
         <v>1991</v>
       </c>
       <c r="D13" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1518,7 +1527,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1533,7 +1542,7 @@
         <v>4912</v>
       </c>
       <c r="N13" s="7">
-        <v>4410466</v>
+        <v>4527121</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1547,7 +1556,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1556,46 +1565,46 @@
         <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>41610</v>
+        <v>38946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
       </c>
       <c r="I14" s="7">
-        <v>43898</v>
+        <v>40333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
       </c>
       <c r="N14" s="7">
-        <v>85508</v>
+        <v>79279</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,46 +1616,46 @@
         <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>43676</v>
+        <v>43004</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>88</v>
       </c>
       <c r="I15" s="7">
-        <v>59937</v>
+        <v>54512</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>130</v>
       </c>
       <c r="N15" s="7">
-        <v>103614</v>
+        <v>97516</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,46 +1667,46 @@
         <v>150</v>
       </c>
       <c r="D16" s="7">
-        <v>128628</v>
+        <v>119015</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>252</v>
       </c>
       <c r="I16" s="7">
-        <v>156336</v>
+        <v>143562</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>402</v>
       </c>
       <c r="N16" s="7">
-        <v>284965</v>
+        <v>262577</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,46 +1718,46 @@
         <v>446</v>
       </c>
       <c r="D17" s="7">
-        <v>458152</v>
+        <v>444688</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>599</v>
       </c>
       <c r="I17" s="7">
-        <v>453714</v>
+        <v>422056</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1045</v>
       </c>
       <c r="N17" s="7">
-        <v>911866</v>
+        <v>866745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1769,7 @@
         <v>680</v>
       </c>
       <c r="D18" s="7">
-        <v>672067</v>
+        <v>645654</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1775,7 +1784,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1790,7 +1799,7 @@
         <v>1684</v>
       </c>
       <c r="N18" s="7">
-        <v>1385953</v>
+        <v>1306117</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1813,46 +1822,46 @@
         <v>322</v>
       </c>
       <c r="D19" s="7">
-        <v>289816</v>
+        <v>265973</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>613</v>
       </c>
       <c r="I19" s="7">
-        <v>398439</v>
+        <v>353545</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>935</v>
       </c>
       <c r="N19" s="7">
-        <v>688255</v>
+        <v>619518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,46 +1873,46 @@
         <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>244347</v>
+        <v>234196</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>665</v>
       </c>
       <c r="I20" s="7">
-        <v>416561</v>
+        <v>379010</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>937</v>
       </c>
       <c r="N20" s="7">
-        <v>660908</v>
+        <v>613206</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,46 +1924,46 @@
         <v>652</v>
       </c>
       <c r="D21" s="7">
-        <v>569232</v>
+        <v>533250</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>1284</v>
       </c>
       <c r="I21" s="7">
-        <v>763097</v>
+        <v>697925</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>1936</v>
       </c>
       <c r="N21" s="7">
-        <v>1332330</v>
+        <v>1231175</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,46 +1975,46 @@
         <v>2116</v>
       </c>
       <c r="D22" s="7">
-        <v>2271249</v>
+        <v>2416471</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>2789</v>
       </c>
       <c r="I22" s="7">
-        <v>2218501</v>
+        <v>2220975</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>4905</v>
       </c>
       <c r="N22" s="7">
-        <v>4489750</v>
+        <v>4637445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2026,7 @@
         <v>3362</v>
       </c>
       <c r="D23" s="7">
-        <v>3374645</v>
+        <v>3449890</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2032,7 +2041,7 @@
         <v>5351</v>
       </c>
       <c r="I23" s="7">
-        <v>3796598</v>
+        <v>3651455</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2047,7 +2056,7 @@
         <v>8713</v>
       </c>
       <c r="N23" s="7">
-        <v>7171243</v>
+        <v>7101345</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2061,7 +2070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023</t>
+          <t>Poblacion según la frecuencia con la que se despierta demasiado temprano de forma involuntaria en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
